--- a/individual_results/harvard/527.xlsx
+++ b/individual_results/harvard/527.xlsx
@@ -510,7 +510,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="D2" t="n">
         <v>0.2</v>
@@ -519,7 +519,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="F2" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -531,10 +531,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="J2" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="K2" t="n">
-        <v>0.125</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="L2" t="n">
         <v>1</v>
@@ -556,7 +556,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
         <v>1</v>
@@ -577,7 +577,7 @@
         <v>1</v>
       </c>
       <c r="J3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K3" t="n">
         <v>1</v>
@@ -600,7 +600,7 @@
       </c>
       <c r="B4" t="inlineStr"/>
       <c r="C4" t="n">
-        <v>0.6666666666666667</v>
+        <v>0.4</v>
       </c>
       <c r="D4" t="n">
         <v>0.3333333333333334</v>
@@ -609,7 +609,7 @@
         <v>0.5</v>
       </c>
       <c r="F4" t="n">
-        <v>0.5</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
@@ -617,10 +617,10 @@
         <v>0.5</v>
       </c>
       <c r="J4" t="n">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="K4" t="n">
-        <v>0.2222222222222222</v>
+        <v>0.25</v>
       </c>
       <c r="L4" t="n">
         <v>1</v>
@@ -640,7 +640,7 @@
       </c>
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="n">
-        <v>1.111111111111111</v>
+        <v>0.625</v>
       </c>
       <c r="D5" t="n">
         <v>0.5555555555555556</v>
@@ -649,7 +649,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="F5" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
@@ -657,10 +657,10 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="J5" t="n">
-        <v>1.428571428571429</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="K5" t="n">
-        <v>0.4166666666666667</v>
+        <v>0.4545454545454545</v>
       </c>
       <c r="L5" t="n">
         <v>1</v>
@@ -682,7 +682,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>1.430676558073393</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
         <v>0.3868528072345416</v>
@@ -703,7 +703,7 @@
         <v>0.5</v>
       </c>
       <c r="J6" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="K6" t="n">
         <v>0.3562071871080222</v>
@@ -906,7 +906,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
         <v>5</v>
@@ -915,7 +915,7 @@
         <v>3</v>
       </c>
       <c r="F11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr"/>
@@ -923,10 +923,10 @@
         <v>3</v>
       </c>
       <c r="J11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K11" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L11" t="n">
         <v>1</v>
